--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311357.701828082</v>
+        <v>3308813.892320999</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0596109626757</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>124.0596109626758</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>160.1693433169005</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.24881755321605</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>120.3534850500224</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>204.2688325015154</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.48546708272234</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.7818072471469</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.6128256968458</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.9896407219983</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>264.8090471892062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.9986126802194</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059661649</v>
+        <v>18.4733505966156</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932179912</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>198.7422597397508</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0455461130018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695344</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881268</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.733006062639</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>419.733006062639</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>419.733006062639</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>419.733006062639</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>412.7875053134355</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,16 +4328,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4361,19 +4361,19 @@
         <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.733006062639</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.85531399074841</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>79.85531399074841</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>79.85531399074841</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>691.074259448092</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163493</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="W3" t="n">
-        <v>455.9221512163493</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="X3" t="n">
-        <v>248.0706510108164</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.0706510108164</v>
+        <v>357.3373551528642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>933.2863431878201</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>933.2863431878201</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>933.2863431878201</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>678.6018549819332</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>412.2241984147553</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>242.7587375310463</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4610,7 +4610,7 @@
         <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316.5660780344868</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4662,7 +4662,7 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.2786710473376</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4732,7 +4732,7 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227045</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>901.3306303878445</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>634.9529738206666</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>634.9529738206666</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>634.9529738206666</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.58917477165</v>
+        <v>1708.090165988808</v>
       </c>
       <c r="C8" t="n">
-        <v>688.6266578312382</v>
+        <v>1339.127649048396</v>
       </c>
       <c r="D8" t="n">
-        <v>330.3609592244877</v>
+        <v>980.8619504416456</v>
       </c>
       <c r="E8" t="n">
-        <v>330.3609592244877</v>
+        <v>595.0736978434013</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478434</v>
+        <v>588.1281970941978</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685555</v>
+        <v>172.421975085865</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607405</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045901</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550193</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
         <v>2540.564622661158</v>
@@ -4832,22 +4832,22 @@
         <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2351.81067643905</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964619</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964619</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072663</v>
+        <v>2098.229497964619</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811583</v>
+        <v>2098.229497964619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.189014835772</v>
+        <v>1708.090165988808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010723</v>
+        <v>929.5097208010714</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199453</v>
+        <v>755.0566915199444</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858694</v>
+        <v>606.1222818586931</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532385</v>
+        <v>446.8848268532376</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801235</v>
+        <v>300.3502688801226</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763117</v>
+        <v>163.6480708763108</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444797</v>
+        <v>69.87120530444705</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507232</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442749</v>
+        <v>298.0857543148171</v>
       </c>
       <c r="L9" t="n">
-        <v>1091.982190524993</v>
+        <v>592.6217377482977</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999294</v>
+        <v>955.6882062225982</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471863</v>
+        <v>1564.570720174571</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459252</v>
+        <v>2198.310003359408</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888876</v>
+        <v>2445.345361789032</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.27262844262</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
         <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251693</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685342</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751571</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519829</v>
+        <v>1767.574213519828</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791627</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586094</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782114</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686129</v>
+        <v>349.2409882015844</v>
       </c>
       <c r="C10" t="n">
-        <v>546.985197640706</v>
+        <v>349.2409882015844</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283703</v>
+        <v>199.1243487892486</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459771</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480668</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380124</v>
+        <v>76.63468308380115</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676563</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101611</v>
@@ -4978,34 +4978,34 @@
         <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1310.174753887022</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1021.056380381664</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477361</v>
+        <v>1021.056380381664</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.3519754404</v>
+        <v>731.6392103447038</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542383</v>
+        <v>731.6392103447038</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988526</v>
+        <v>530.8894530318241</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,7 +5996,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637304</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444888</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684175</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797183</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745235</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.3777707160738</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4415877881669</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1726.910023830708</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1472.225535624822</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1182.808365587861</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8188146898436</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0262355463135</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273898</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094453</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>113.8482254012503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.0384964438424</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.901488078231</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348528</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
-        <v>38.13892827624238</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26074,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="9">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778551</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210055</v>
@@ -26335,13 +26335,13 @@
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210054</v>
@@ -26350,10 +26350,10 @@
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580776</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.2320606949</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191139</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101729</v>
+        <v>95270.23779101722</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.390189444212943e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501121</v>
+        <v>140465.2517501122</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179354</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567886</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255425.5565366239</v>
+        <v>-255425.5565366238</v>
       </c>
       <c r="C6" t="n">
-        <v>424662.4240545694</v>
+        <v>424662.4240545689</v>
       </c>
       <c r="D6" t="n">
-        <v>114889.4658939864</v>
+        <v>114889.465893987</v>
       </c>
       <c r="E6" t="n">
-        <v>106233.1455846103</v>
+        <v>106198.4076591738</v>
       </c>
       <c r="F6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453042</v>
+        <v>614107.6397198695</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453049</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="J6" t="n">
-        <v>545143.2232261908</v>
+        <v>545108.4853007554</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="L6" t="n">
-        <v>518872.1398542876</v>
+        <v>518837.4019288517</v>
       </c>
       <c r="M6" t="n">
-        <v>481424.4019498355</v>
+        <v>481389.6640243996</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.639719869</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.639719869</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.639719869</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.737736805266179e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.737736805266179e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627818</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856944</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.737736805266179e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933035</v>
+        <v>319.6474457933032</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778892</v>
+        <v>434.2730407788923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>288.7745636830343</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776184</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.363840332966845</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>143.3962629021849</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>84.36567919357132</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>47.86881082231261</v>
       </c>
       <c r="W4" t="n">
         <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>94.74862176965152</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27682,7 +27682,7 @@
         <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144.047716567145</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>47.07268025640772</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>12.89177718681809</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>71.2247051575676</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>142.0669985525052</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>181.0348615400811</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465054</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164535965</v>
+        <v>1.776449164536878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899071</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.84239361234395</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.885211986518698e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.737736805266179e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.817834618466036e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885552</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546667</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972529</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763184</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354923</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359932</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525068</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307886</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983014</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542124</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514046</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
         <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026262</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502164</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571275</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461716</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152207</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519078</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947585</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133926</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419031</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415873</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
         <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307405</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942742</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650322</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1181176946646</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111258</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471746</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709969</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,31 +34451,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.482598761492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,10 +34860,10 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043496</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458913</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313379</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655051</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087205</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559159</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091018</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430319</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879763</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234264</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.926849488436</v>
+        <v>186.4616124758573</v>
       </c>
       <c r="L9" t="n">
-        <v>411.3593197785037</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396977</v>
+        <v>366.7338065396975</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318874</v>
+        <v>615.0328423757297</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074633</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804282</v>
+        <v>249.5306650804281</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783558</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873301</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
         <v>173.3488267513687</v>
@@ -35340,16 +35340,16 @@
         <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228567</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>483.7764056113314</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.96455263125159</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998991</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281558</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317163</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998999</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876636</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394736</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
